--- a/3_data_analysis/correlation_network/within_child/exposome_vs_phenotype/exposome_internal_ome_network.xlsx
+++ b/3_data_analysis/correlation_network/within_child/exposome_vs_phenotype/exposome_internal_ome_network.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -24,13 +24,13 @@
     <t xml:space="preserve">true_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Body.mass.index.z.score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body.mass.index.z.score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMI</t>
   </si>
   <si>
     <t xml:space="preserve">PMabs in</t>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -361,11 +361,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B132" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B132"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C132" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C132"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="from"/>
     <tableColumn id="2" name="to"/>
+    <tableColumn id="3" name="Class"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -649,10 +650,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
       <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -675,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -683,13 +684,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1582,10 +1583,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
       <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -1599,12 +1600,18 @@
       <c r="B1" t="s">
         <v>96</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1613,7 +1620,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1621,7 +1631,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1629,7 +1642,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1637,6 +1653,9 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1647,13 +1666,19 @@
       <c r="B7" t="s">
         <v>93</v>
       </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1663,13 +1688,19 @@
       <c r="B9" t="s">
         <v>93</v>
       </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1679,13 +1710,19 @@
       <c r="B11" t="s">
         <v>93</v>
       </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1695,12 +1732,18 @@
       <c r="B13" t="s">
         <v>93</v>
       </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1711,13 +1754,19 @@
       <c r="B15" t="s">
         <v>93</v>
       </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1725,7 +1774,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1733,7 +1785,10 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1741,7 +1796,10 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1749,6 +1807,9 @@
         <v>61</v>
       </c>
       <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1759,13 +1820,19 @@
       <c r="B21" t="s">
         <v>93</v>
       </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1773,6 +1840,9 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1781,7 +1851,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1789,6 +1862,9 @@
         <v>63</v>
       </c>
       <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1799,13 +1875,19 @@
       <c r="B26" t="s">
         <v>93</v>
       </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1813,6 +1895,9 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1821,7 +1906,10 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1829,7 +1917,10 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1837,6 +1928,9 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1845,6 +1939,9 @@
         <v>67</v>
       </c>
       <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1853,7 +1950,10 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1861,7 +1961,10 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1869,6 +1972,9 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1877,7 +1983,10 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1885,6 +1994,9 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1893,6 +2005,9 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1901,7 +2016,10 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1909,6 +2027,9 @@
         <v>72</v>
       </c>
       <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1917,7 +2038,10 @@
         <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1925,6 +2049,9 @@
         <v>74</v>
       </c>
       <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1933,7 +2060,10 @@
         <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1941,6 +2071,9 @@
         <v>75</v>
       </c>
       <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1949,7 +2082,10 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1957,6 +2093,9 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1967,13 +2106,19 @@
       <c r="B47" t="s">
         <v>93</v>
       </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1983,6 +2128,9 @@
       <c r="B49" t="s">
         <v>93</v>
       </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1991,6 +2139,9 @@
       <c r="B50" t="s">
         <v>93</v>
       </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1999,6 +2150,9 @@
       <c r="B51" t="s">
         <v>93</v>
       </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -2007,13 +2161,19 @@
       <c r="B52" t="s">
         <v>93</v>
       </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2023,6 +2183,9 @@
       <c r="B54" t="s">
         <v>93</v>
       </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2031,6 +2194,9 @@
       <c r="B55" t="s">
         <v>93</v>
       </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -2039,6 +2205,9 @@
       <c r="B56" t="s">
         <v>93</v>
       </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -2047,13 +2216,19 @@
       <c r="B57" t="s">
         <v>93</v>
       </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2063,13 +2238,19 @@
       <c r="B59" t="s">
         <v>93</v>
       </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2079,13 +2260,19 @@
       <c r="B61" t="s">
         <v>93</v>
       </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2093,6 +2280,9 @@
         <v>89</v>
       </c>
       <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2103,13 +2293,19 @@
       <c r="B64" t="s">
         <v>93</v>
       </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2117,6 +2313,9 @@
         <v>90</v>
       </c>
       <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2127,13 +2326,19 @@
       <c r="B67" t="s">
         <v>93</v>
       </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2141,7 +2346,10 @@
         <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2149,6 +2357,9 @@
         <v>92</v>
       </c>
       <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2159,12 +2370,18 @@
       <c r="B71" t="s">
         <v>93</v>
       </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>19</v>
       </c>
       <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2175,13 +2392,19 @@
       <c r="B73" t="s">
         <v>93</v>
       </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -2189,6 +2412,9 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2197,7 +2423,10 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -2207,12 +2436,18 @@
       <c r="B77" t="s">
         <v>93</v>
       </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>23</v>
       </c>
       <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2221,7 +2456,10 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -2229,6 +2467,9 @@
         <v>24</v>
       </c>
       <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2239,12 +2480,18 @@
       <c r="B81" t="s">
         <v>93</v>
       </c>
+      <c r="C81" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>25</v>
       </c>
       <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2255,12 +2502,18 @@
       <c r="B83" t="s">
         <v>93</v>
       </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>26</v>
       </c>
       <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2271,12 +2524,18 @@
       <c r="B85" t="s">
         <v>93</v>
       </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>27</v>
       </c>
       <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2287,13 +2546,19 @@
       <c r="B87" t="s">
         <v>93</v>
       </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -2301,6 +2566,9 @@
         <v>28</v>
       </c>
       <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2311,13 +2579,19 @@
       <c r="B90" t="s">
         <v>93</v>
       </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2325,6 +2599,9 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2335,12 +2612,18 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>30</v>
       </c>
       <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2351,13 +2634,19 @@
       <c r="B95" t="s">
         <v>93</v>
       </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -2367,12 +2656,18 @@
       <c r="B97" t="s">
         <v>93</v>
       </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>32</v>
       </c>
       <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2381,7 +2676,10 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -2389,6 +2687,9 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2397,6 +2698,9 @@
         <v>34</v>
       </c>
       <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2405,7 +2709,10 @@
         <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -2413,6 +2720,9 @@
         <v>35</v>
       </c>
       <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2423,6 +2733,9 @@
       <c r="B104" t="s">
         <v>93</v>
       </c>
+      <c r="C104" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2431,13 +2744,19 @@
       <c r="B105" t="s">
         <v>93</v>
       </c>
+      <c r="C105" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -2445,6 +2764,9 @@
         <v>37</v>
       </c>
       <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2455,13 +2777,19 @@
       <c r="B108" t="s">
         <v>93</v>
       </c>
+      <c r="C108" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>38</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -2469,6 +2797,9 @@
         <v>38</v>
       </c>
       <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2479,13 +2810,19 @@
       <c r="B111" t="s">
         <v>93</v>
       </c>
+      <c r="C111" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -2495,13 +2832,19 @@
       <c r="B113" t="s">
         <v>93</v>
       </c>
+      <c r="C113" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
         <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -2509,7 +2852,10 @@
         <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -2517,7 +2863,10 @@
         <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -2525,6 +2874,9 @@
         <v>42</v>
       </c>
       <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2533,7 +2885,10 @@
         <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -2541,6 +2896,9 @@
         <v>43</v>
       </c>
       <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2549,7 +2907,10 @@
         <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2557,6 +2918,9 @@
         <v>44</v>
       </c>
       <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2567,13 +2931,19 @@
       <c r="B122" t="s">
         <v>93</v>
       </c>
+      <c r="C122" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -2583,13 +2953,19 @@
       <c r="B124" t="s">
         <v>93</v>
       </c>
+      <c r="C124" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
         <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -2597,6 +2973,9 @@
         <v>46</v>
       </c>
       <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2605,7 +2984,10 @@
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -2615,13 +2997,19 @@
       <c r="B128" t="s">
         <v>93</v>
       </c>
+      <c r="C128" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -2629,7 +3017,10 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -2637,6 +3028,9 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2645,7 +3039,10 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
